--- a/小红书爬虫文件/最新舆情数据.xlsx
+++ b/小红书爬虫文件/最新舆情数据.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,50 +446,27 @@
         <v>ai思考过程</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" t="str">
-        <v>万科研选家有多渣</v>
+        <v>万科研选家到底怎么样</v>
       </c>
       <c r="B2" t="str">
         <v>线条小狗</v>
       </c>
       <c r="C2" t="str">
-        <v>2024-12-08</v>
+        <v>2024-12-26</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.xiaohongshu.com/explore/67558ea00000000002027738?xsec_token=ABaxJmPtrr-u9007XQFXwLLwZtElFSViNHz0uvrEs6UvU=&amp;xsec_source=</v>
-      </c>
-      <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">自从上次发了，踩坑万科，
-研选家的视频，后台炸了。
-今天给大家上几张图。建议放大收看。
-打从发现自家地砖像个鬼一样，立马找到了摸鱼项目经理，结果听他一顿扯野棉花，
-也是，不知道他是眼瞎，还是尔康我看不见了，
-能甩国标的甩国标，
-能扯几几几公分的，扯几几几公分
-最后他说了一句，我至今都难以忘记的话
-：野猪🐗(业主)美甲💅(每家)都这样。
-笑死，美甲怎么我不知道，我指甲(自家)装什么得🉐️安咱的需求来。
-结果又被上了一课。换的像个鬼一样。
-就是，咋说呢，你们画歪果眉毛吗
-并且，还给我立上了，及时响应积极处理问题的人设，成功洗白0作用挂机摸鱼不监管工地的事实。
-个斑马，这个事情不用武汉话，该觉不
-地暖，可是我装了地暖，
-55555555555555
-没办法，只能，找满级美缝，并且叠加了全屋调色套餐。
-杀千刀，他那放着过年的水泥没扣，封泥面啥都有，结果美缝大师再用小火车🚄清缝的时候，瓷砖被水泥带下来
-蹦边，啥意思呢，就好比，呃🤔
-你们撕过腿毛没有
-累了😭，姐妹们，四腿毛痛不痛我不知道，我真的很心痛💔，
-只能说，看到万科，赶紧跑
-毕竟别人努力的上线，是这个行业的下限
-#瓷砖平整度 #墙砖 #贴砖 #装修 #装修日记 #武汉装修 #武汉装修公司 #研选家 #万科</v>
+        <v>https://www.xiaohongshu.com/explore/676cd0f9000000000900ebe4?xsec_token=ABoZQp8D-Y8Ko4uypximeesRNKf98Ro90a9_wA8IbE8fY=&amp;xsec_source=</v>
+      </c>
+      <c r="E2" t="str">
+        <v>宝子们集合！！！ 这几天后台，私信炸了，越来越多和我一样受伤的宝子们的遭遇，真是离谱的千奇百怪 找了两个特别离谱的，大家自行观看。 真的很心疼万科业主， 被自己的万科物业卖到离谱的万科装修研选家 已经上船的宝子们，真的要打起12分的精神 该盯紧的，赶紧锁死， 别像我们这样，想后悔都来不及。 #装修 #我为消费者发声 #装修日记 #维护自己的利益 #保护消费者 #无良商家必须严惩 #没有金刚钻别揽瓷器活 #物种多样性鉴赏 #研选家 #万科</v>
       </c>
       <c r="F2" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502200953/71f268048913a364d4f21958afffa53a/1040g2sg31b57su7l7m905p5de1i7ol1hmiqg4ro!nd_dft_wlteh_webp_3</v>
+        <v>https://sns-webpic-qc.xhscdn.com/202502202209/bfdbbeed7de6a9e086e22aa673a1338c/1040g2sg31bruo44bgm805p5de1i7ol1h5molk60!nd_dft_wgth_webp_3</v>
       </c>
       <c r="G2" t="str">
-        <v>共 34 条评论研选家尊敬的客户您好，我们的客服人员已和您联系，但您一直未明确告知项目房号等信息，我们未能查实您所提供的内容来源。为更好的向您提供售后服务，麻烦您回复告知小客服您的相关订单信息~感谢您的支持。2024-12-12赞8线条小狗作者售后啥呢，天天跟我吵架，还撒泼打滚。没事过几天我给他打个码。你们自查一下，抓内鬼不是更刺激吗？2024-12-122回复展开 7 条回复武汉装修秦团长了解避坑2024-12-1417线条小狗作者给你们客服多发点，2024-12-23赞回复展开 6 条回复小红薯613E48C3地暖也是么？最近在考虑地暖，地暖有啥推荐的么？2024-12-1217线条小狗作者有呀2024-12-12赞回复展开 6 条回复fxygr同样踩雷，给我砌的墙01-0513线条小狗作者我的妈呀，都裂了01-05赞回复展开 2 条回复武汉美家乐美缝2024-12-0813线条小狗作者离谱不2024-12-08赞回复展开 2 条回复一只蛋挞我就住万科，越看越觉得离谱哦2024-12-23赞回复 - THE END -</v>
+        <v>共 10 条评论奶爸做家装叫研选的，美居的都快闪，一群打着KFS，WY背书的草台班子2024-12-2812线条小狗作者我看了都怕2024-12-28赞回复展开 1 条回复墨韵书画特别是上海研选家装修公司，都啃爹，01-06赞1线条小狗作者咋了01-06赞回复fxygr千万避雷，看下我的砌墙图你就明白了01-05赞1线条小狗作者太离谱了01-05赞回复wingwingwing666避雷 打去总部投诉吧01-141回复墨韵书画全网的宝子们，万科研选家装修公司就是坑人的大骗子，不仅坑客户，还坑工长，大家注意，全网转发，曝光他们丑恶嘴脸01-06赞1线条小狗作者细说电够01-06赞回复 - THE END -</v>
       </c>
       <c r="H2" t="str">
         <v>没有找到关键词</v>
@@ -497,19 +474,11 @@
       <c r="I2" t="str">
         <v>负面</v>
       </c>
-      <c r="J2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-好的，我现在需要分析用户提供的五条关于“研选家”品牌的内容，判断每条的情感倾向是正面还是负面。根据规则，中性或无法判断的也归为正面。让我逐一仔细分析每条内容。
-首先看内容1：标题是“万科研选家有多渣”，内容详细描述了用户装修过程中遇到的问题，如地砖不平、项目经理推诿、处理结果不满意，使用了很多负面词汇如“踩坑万科”、“像个鬼一样”、“杀千刀”等，语气充满抱怨和愤怒，最后还建议“看到万科，赶紧跑”，明显对品牌有强烈的负面情绪，影响品牌形象。所以这条应该是负面。
-内容2：标题是地毯推荐，内容主要是分享选择地毯的注意事项，没有提到研选家品牌，只是在最后的话题标签中有#治愈家的小毛病，可能关联到品牌，但整体内容中立，属于建议性内容，没有明显情感倾向。根据规则，中性归为正面。
-内容3：用户作为万科业主，提到刚知道研选家是万科物业的装修服务，后悔没早用，因为外面找的公司倒闭了，认为万科物业更可靠，有售后保障。这里对研选家的评价是正面的，认为其可靠，所以情感是正面。
-内容4：询问深圳万科研选家设计岗的情况，属于中性提问，没有情感色彩，按规则归为正面。
-内容5：讨论如何选沙发，内容全是选购建议，未提及研选家，只是标签可能相关，但内容本身中立，因此归为正面。
-总结下来，内容1负面，其他都是正面。
-</v>
+      <c r="J2" t="str">
+        <v>内容中包含大量负面情感词汇如"受伤"、"离谱"、"心疼"、"后悔"、"无良商家"等，通过"物种多样性鉴赏"等反讽手法强化不满情绪。用户通过曝光装修问题、号召消费者警惕等方式，直接损害万科品牌信誉，可能引发消费者信任危机，符合负面舆情特征。</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
+    <row r="3">
       <c r="A3" t="str">
         <v>2025的本命地毯，看一个爱一个</v>
       </c>
@@ -517,23 +486,16 @@
         <v>研选家</v>
       </c>
       <c r="C3" t="str">
-        <v>编辑于 1 天前 广东</v>
+        <v>编辑于 2 天前 广东</v>
       </c>
       <c r="D3" t="str">
         <v>https://www.xiaohongshu.com/explore/67b48714000000002901aee5?xsec_token=ABSl-l8bzHTYckMmhNrE02aqUoffqL4S0yfGqisecnjO0=&amp;xsec_source=</v>
       </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">🟥没有什么是一块地毯解决不了的，不管是新装修的房子还是想要换个环境却不愿大动干戈的老房子，选一张新地毯，空间整个焕然一新！🌟
-🈶几个注意事项一定要记住——
-♦️不要满铺！大面积的地毯毕竟没有地板瓷砖更耐脏，易打扫，容易滋生螨虫，藏污纳垢。引发鼻炎等问题。
-♦️不要过小！客厅中央地毯长度尺寸至少是茶几长度*1.2。
-♦️材质注意选择，纯羊毛，长绒，布面的不好打理，容易脏污；亚麻等不能暴晒；塑胶底容易释放甲醛；混纺的比较推荐，价格不能太低，地毯的品质决定了空间的气质。
-♦️色彩和纹样依据家装风格来定，可以跳脱，但不能过于喧宾夺主！
-🔥如果你家有漂亮的地毯，欢迎评论区尽情凡尔赛！！
-#治愈家的小毛病 #地毯推荐 #客厅装修 #客厅设计 #地毯怎么选 #室内设计 @薯队长 @装修薯</v>
+      <c r="E3" t="str">
+        <v>🟥没有什么是一块地毯解决不了的，不管是新装修的房子还是想要换个环境却不愿大动干戈的老房子，选一张新地毯，空间整个焕然一新！🌟 🈶几个注意事项一定要记住—— ♦️不要满铺！大面积的地毯毕竟没有地板瓷砖更耐脏，易打扫，容易滋生螨虫，藏污纳垢。引发鼻炎等问题。 ♦️不要过小！客厅中央地毯长度尺寸至少是茶几长度*1.2。 ♦️材质注意选择，纯羊毛，长绒，布面的不好打理，容易脏污；亚麻等不能暴晒；塑胶底容易释放甲醛；混纺的比较推荐，价格不能太低，地毯的品质决定了空间的气质。 ♦️色彩和纹样依据家装风格来定，可以跳脱，但不能过于喧宾夺主！ 🔥如果你家有漂亮的地毯，欢迎评论区尽情凡尔赛！！ #治愈家的小毛病 #地毯推荐 #客厅装修 #客厅设计 #地毯怎么选 #室内设计 @薯队长 @装修薯</v>
       </c>
       <c r="F3" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502200953/4438fee041261f9d7fa9150bde3468ad/1040g2sg31e1vnfe210d05o398rr0bno98qp4s8g!nd_dft_wlteh_webp_3</v>
+        <v>https://sns-webpic-qc.xhscdn.com/202502202209/c64d1a4d952458faab7d2b393ee79e42/1040g2sg31e1vnfe210d05o398rr0bno98qp4s8g!nd_dft_wlteh_webp_3</v>
       </c>
       <c r="G3" t="str">
         <v>这是一片荒地点击评论</v>
@@ -542,153 +504,15 @@
         <v>没有找到关键词</v>
       </c>
       <c r="I3" t="str">
-        <v>负面</v>
-      </c>
-      <c r="J3" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-好的，我现在需要分析用户提供的五条关于“研选家”品牌的内容，判断每条的情感倾向是正面还是负面。根据规则，中性或无法判断的也归为正面。让我逐一仔细分析每条内容。
-首先看内容1：标题是“万科研选家有多渣”，内容详细描述了用户装修过程中遇到的问题，如地砖不平、项目经理推诿、处理结果不满意，使用了很多负面词汇如“踩坑万科”、“像个鬼一样”、“杀千刀”等，语气充满抱怨和愤怒，最后还建议“看到万科，赶紧跑”，明显对品牌有强烈的负面情绪，影响品牌形象。所以这条应该是负面。
-内容2：标题是地毯推荐，内容主要是分享选择地毯的注意事项，没有提到研选家品牌，只是在最后的话题标签中有#治愈家的小毛病，可能关联到品牌，但整体内容中立，属于建议性内容，没有明显情感倾向。根据规则，中性归为正面。
-内容3：用户作为万科业主，提到刚知道研选家是万科物业的装修服务，后悔没早用，因为外面找的公司倒闭了，认为万科物业更可靠，有售后保障。这里对研选家的评价是正面的，认为其可靠，所以情感是正面。
-内容4：询问深圳万科研选家设计岗的情况，属于中性提问，没有情感色彩，按规则归为正面。
-内容5：讨论如何选沙发，内容全是选购建议，未提及研选家，只是标签可能相关，但内容本身中立，因此归为正面。
-总结下来，内容1负面，其他都是正面。
-</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>原来万科物业也做家装呀！</v>
-      </c>
-      <c r="B4" t="str">
-        <v>嘉嘉应子</v>
-      </c>
-      <c r="C4" t="str">
-        <v>01-10</v>
-      </c>
-      <c r="D4" t="str">
-        <v>https://www.xiaohongshu.com/explore/678100de00000000200289bc?xsec_token=AB9c6FUNufywUAj0DB_kkTM2qXSwMcwEOG_Ql7nQeu2Lk=&amp;xsec_source=</v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">作为5年的万科业主，现在才知道原来万科物业也有做设计装修的，叫做研选家！
-早知道就不找外面的装修公司了，刚装完就倒闭了，万科物业的起码物业会一直存在，不用担心售后。
-有业主朋友装修过吗？</v>
-      </c>
-      <c r="F4" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502200953/68a785fbfb0b3c24329284edc798987b/notes_pre_post/1040g3k831cfl8jlhh69g4bur6tn8m24o1osdbb0!nd_dft_wlteh_webp_3</v>
-      </c>
-      <c r="G4" t="str">
-        <v>共 8 条评论小透明这就不得不说在他们小区用研选家的好处了，可以占用走廊的公共面积，入户门外移增加一个3.4平玄关的面积，砸掉承重梁，扩大门洞，打掉承重墙扩大室内面积，打掉烟道扩大厨房面积，切掉飘窗增加卧室面积，反正只要你想，他就能实现01-20赞2每天都是周六打掉承重墙？？？4 天前广东赞回复展开 1 条回复Winner你应该庆幸你不知道01-15赞回复春晓2019年找他们装修的，五年后的售后还在做，还是免费。很不错。那会他们只给自己物业的业主装修房子，现在应该是包括非物业的房子装修也做。01-151回复YWQ做的东西都可以直接拆掉换新的，太垃圾了，不想脑溢血和心梗还是换换吧！01-11赞回复打工人这一点还是可以信任的，签合同。售后问题不用担心01-10赞回复🐟别了，到时候出现问题，就会说和物业不搭噶，叫你找谁装修的去找谁01-10赞回复 - THE END -</v>
-      </c>
-      <c r="H4" t="str">
-        <v>没有找到关键词</v>
-      </c>
-      <c r="I4" t="str">
         <v>正面</v>
       </c>
-      <c r="J4" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-好的，我现在需要分析用户提供的五条关于“研选家”品牌的内容，判断每条的情感倾向是正面还是负面。根据规则，中性或无法判断的也归为正面。让我逐一仔细分析每条内容。
-首先看内容1：标题是“万科研选家有多渣”，内容详细描述了用户装修过程中遇到的问题，如地砖不平、项目经理推诿、处理结果不满意，使用了很多负面词汇如“踩坑万科”、“像个鬼一样”、“杀千刀”等，语气充满抱怨和愤怒，最后还建议“看到万科，赶紧跑”，明显对品牌有强烈的负面情绪，影响品牌形象。所以这条应该是负面。
-内容2：标题是地毯推荐，内容主要是分享选择地毯的注意事项，没有提到研选家品牌，只是在最后的话题标签中有#治愈家的小毛病，可能关联到品牌，但整体内容中立，属于建议性内容，没有明显情感倾向。根据规则，中性归为正面。
-内容3：用户作为万科业主，提到刚知道研选家是万科物业的装修服务，后悔没早用，因为外面找的公司倒闭了，认为万科物业更可靠，有售后保障。这里对研选家的评价是正面的，认为其可靠，所以情感是正面。
-内容4：询问深圳万科研选家设计岗的情况，属于中性提问，没有情感色彩，按规则归为正面。
-内容5：讨论如何选沙发，内容全是选购建议，未提及研选家，只是标签可能相关，但内容本身中立，因此归为正面。
-总结下来，内容1负面，其他都是正面。
-</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>活动</v>
-      </c>
-      <c r="B5" t="str">
-        <v>小糖氏</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2024-12-28</v>
-      </c>
-      <c r="D5" t="str">
-        <v>https://www.xiaohongshu.com/explore/676f50f5000000001402120b?xsec_token=ABRUsr5PWdmgUtfUnd-bbtWPUwTplfVvDtnKiAhJwGDh8=&amp;xsec_source=</v>
-      </c>
-      <c r="E5" t="str">
-        <v>有小伙伴了解深圳万科，研选家设计岗怎么样嘛，谢谢啦，求分享</v>
-      </c>
-      <c r="F5" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502200953/091cbe209d82a87caf4dced45f078d08/1040g2sg31bucs2ij08c05oag2frgkvd8ap78oa0!nd_dft_wlteh_webp_3</v>
-      </c>
-      <c r="G5" t="str">
-        <v>共 4 条评论小糖氏作者能否具体说说呢2024-12-31赞回复还我星冰乐别去，会被压榨2024-12-31赞1ZZOO怎么被压榨02-09湖北赞回复嗯恩嗯恩你去了不，咋样啊7 天前湖北赞回复 - THE END -</v>
-      </c>
-      <c r="H5" t="str">
-        <v>没有找到关键词</v>
-      </c>
-      <c r="I5" t="str">
-        <v>负面</v>
-      </c>
-      <c r="J5" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-好的，我现在需要分析用户提供的五条关于“研选家”品牌的内容，判断每条的情感倾向是正面还是负面。根据规则，中性或无法判断的也归为正面。让我逐一仔细分析每条内容。
-首先看内容1：标题是“万科研选家有多渣”，内容详细描述了用户装修过程中遇到的问题，如地砖不平、项目经理推诿、处理结果不满意，使用了很多负面词汇如“踩坑万科”、“像个鬼一样”、“杀千刀”等，语气充满抱怨和愤怒，最后还建议“看到万科，赶紧跑”，明显对品牌有强烈的负面情绪，影响品牌形象。所以这条应该是负面。
-内容2：标题是地毯推荐，内容主要是分享选择地毯的注意事项，没有提到研选家品牌，只是在最后的话题标签中有#治愈家的小毛病，可能关联到品牌，但整体内容中立，属于建议性内容，没有明显情感倾向。根据规则，中性归为正面。
-内容3：用户作为万科业主，提到刚知道研选家是万科物业的装修服务，后悔没早用，因为外面找的公司倒闭了，认为万科物业更可靠，有售后保障。这里对研选家的评价是正面的，认为其可靠，所以情感是正面。
-内容4：询问深圳万科研选家设计岗的情况，属于中性提问，没有情感色彩，按规则归为正面。
-内容5：讨论如何选沙发，内容全是选购建议，未提及研选家，只是标签可能相关，但内容本身中立，因此归为正面。
-总结下来，内容1负面，其他都是正面。
-</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>一个沙发选错，客厅就毁了❗</v>
-      </c>
-      <c r="B6" t="str">
-        <v>研选家</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2024-05-23</v>
-      </c>
-      <c r="D6" t="str">
-        <v>https://www.xiaohongshu.com/explore/664ebb270000000005005a5f?xsec_token=ABqLLOQrkxCHHYCZbGyCt0mCjXoEyHNA-zNqyJoIyqknQ=&amp;xsec_source=</v>
-      </c>
-      <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">买沙发前不先了解这些，别买了吃亏又后悔；
-1. 🛋沙发海绵密度很关键呀！要是太低，真的特别容易塌陷😣，像那种 30D 的海绵做主要填充物，这沙发坐半年可能就有好多屁股坑啦🙄。建议选 45D 左右的，承托舒适又不会过软塌陷，恰到好处👏。
-2. 沙发有刺鼻味道可要小心咯😒！很可能是用了很多碎海绵或劣质海绵，再加上大量胶水粘接做的填充。高密度海绵甚至更高阶的羽绒都不错哦👍，买之前一定要问清楚。
-3. 底托只有绷带的别选啦🤔！容易老化断裂，坐起来韧感也不够。建议选绷带+蛇形弹簧的组合呀，既能确保坐感回弹舒适，又大大增加了托底耐用性，长期用也不容易损坏塌陷啦😃。
-4. 无纺布封底的，用两年（要是沙发常晒太阳可能时间更短），无纺布就会老化碎裂成小块粉末😭。还是选布艺封底吧，不容易坏，比无纺布耐用多啦🤗。
-5. 好多中国家庭习惯选贵妃沙发，可它占地大，使用频率又低呀😕。建议选直排沙发，空间更显大呢🎉。
-6. 廉价的科技布要注意哦，尤其是那些贴皮的科技布，耐久性很差，容易掉皮掉渣还褪色😫。选磨砂布或者棉麻、真皮的沙发会好很多呀，起码不会用着用着表面就爆皮啦😎。
-7. 浅颜色沙发要慎重呀😯！像乳白、浅米白这类的，稍不注意就脏啦，正常使用很不耐脏。建议选灰、黑、墨绿、暗橙这些深色系的，用得好反而显质感、显高级还更耐脏呢👏。
-#客厅沙发  #怎么选沙发  #沙发  #客厅装修灵感库</v>
-      </c>
-      <c r="F6" t="str">
-        <v>https://sns-webpic-qc.xhscdn.com/202502200953/ec651e028c06176b00c714ba43d420f1/spectrum/1040g34o3134ie8nhjk0g5o398rr0bno9nk63el8!nd_dft_wlteh_webp_3</v>
-      </c>
-      <c r="G6" t="str">
-        <v>这是一片荒地点击评论</v>
-      </c>
-      <c r="H6" t="str">
-        <v>没有找到关键词</v>
-      </c>
-      <c r="I6" t="str">
-        <v>正面</v>
-      </c>
-      <c r="J6" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-好的，我现在需要分析用户提供的五条关于“研选家”品牌的内容，判断每条的情感倾向是正面还是负面。根据规则，中性或无法判断的也归为正面。让我逐一仔细分析每条内容。
-首先看内容1：标题是“万科研选家有多渣”，内容详细描述了用户装修过程中遇到的问题，如地砖不平、项目经理推诿、处理结果不满意，使用了很多负面词汇如“踩坑万科”、“像个鬼一样”、“杀千刀”等，语气充满抱怨和愤怒，最后还建议“看到万科，赶紧跑”，明显对品牌有强烈的负面情绪，影响品牌形象。所以这条应该是负面。
-内容2：标题是地毯推荐，内容主要是分享选择地毯的注意事项，没有提到研选家品牌，只是在最后的话题标签中有#治愈家的小毛病，可能关联到品牌，但整体内容中立，属于建议性内容，没有明显情感倾向。根据规则，中性归为正面。
-内容3：用户作为万科业主，提到刚知道研选家是万科物业的装修服务，后悔没早用，因为外面找的公司倒闭了，认为万科物业更可靠，有售后保障。这里对研选家的评价是正面的，认为其可靠，所以情感是正面。
-内容4：询问深圳万科研选家设计岗的情况，属于中性提问，没有情感色彩，按规则归为正面。
-内容5：讨论如何选沙发，内容全是选购建议，未提及研选家，只是标签可能相关，但内容本身中立，因此归为正面。
-总结下来，内容1负面，其他都是正面。
-</v>
+      <c r="J3" t="str">
+        <v>内容整体呈现建设性指导语气，使用🌟、🔥等积极表情符号增强正向情感。虽然包含注意事项，但核心是分享专业选购建议，结尾号召互动使用"欢迎尽情凡尔赛"等鼓励性表达，有利于提升家装话题的社区活跃度，对相关品牌有隐性推广作用。</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>